--- a/ExcelSheet.xlsx
+++ b/ExcelSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Lines Total</t>
   </si>
@@ -58,13 +58,25 @@
   </si>
   <si>
     <t>//SmallSQL/src/smallsql/junit/TestAlterTable2.java</t>
+  </si>
+  <si>
+    <t>//SmallSQL/src/smallsql/database/ExpressionFunctionReturnP1.java</t>
+  </si>
+  <si>
+    <t>//SmallSQL/src/smallsql/database/MutableInteger.java</t>
+  </si>
+  <si>
+    <t>//SmallSQL/src/smallsql/database/ExpressionFunctionRight.java</t>
+  </si>
+  <si>
+    <t>//SmallSQL/src/smallsql/database/ExpressionFunctionAbs.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +88,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,34 +148,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -461,13 +467,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -479,292 +485,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>184</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>35</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>24</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>125</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2">
+      <c r="F3" s="7"/>
+      <c r="G3" s="1">
         <v>184</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>38</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>24</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>254</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>76</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>24</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>154</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2">
+      <c r="F4" s="7"/>
+      <c r="G4" s="1">
         <v>254</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
         <v>24</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>44</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>32</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>8</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="4">
+      <c r="F5" s="7"/>
+      <c r="G5" s="3">
         <v>44</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>32</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>64</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>36</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>18</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="4">
+      <c r="F6" s="7"/>
+      <c r="G6" s="3">
         <v>64</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>36</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>10</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>135</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>36</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>20</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>79</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="5">
+      <c r="F7" s="7"/>
+      <c r="G7" s="4">
         <v>135</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>36</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>20</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>186</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>61</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>19</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>106</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="5">
+      <c r="F8" s="7"/>
+      <c r="G8" s="4">
         <v>186</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>66</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>19</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>82</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>16</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>56</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="8">
+      <c r="F9" s="7"/>
+      <c r="G9" s="4">
         <v>82</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="2">
         <v>6</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="4">
         <v>16</v>
       </c>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4">
+        <v>109</v>
+      </c>
+      <c r="C10" s="4">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8">
+        <v>109</v>
+      </c>
+      <c r="H10" s="8">
+        <v>37</v>
+      </c>
+      <c r="I10" s="8">
+        <v>11</v>
+      </c>
+      <c r="J10" s="8">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4">
+        <v>70</v>
+      </c>
+      <c r="C11" s="4">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4">
+        <v>70</v>
+      </c>
+      <c r="H11" s="4">
+        <v>36</v>
+      </c>
+      <c r="I11" s="4">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>73</v>
+      </c>
+      <c r="C12" s="4">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4">
+        <v>73</v>
+      </c>
+      <c r="H12" s="4">
+        <v>36</v>
+      </c>
+      <c r="I12" s="4">
+        <v>11</v>
+      </c>
+      <c r="J12" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>111</v>
+      </c>
+      <c r="C13" s="1">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
